--- a/results/artist-artist/experiment_2019-05-18-18-32/average_validation_result_table_artist-artist.xlsx
+++ b/results/artist-artist/experiment_2019-05-18-18-32/average_validation_result_table_artist-artist.xlsx
@@ -370,8 +370,8 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,61 +580,62 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="n">
         <v>1024</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O4" s="0" t="n">
+      <c r="N4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="0" t="n">
+      <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="2" t="n">
         <v>80.35</v>
       </c>
     </row>
@@ -757,61 +758,62 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>25</v>
-      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2" t="n">
         <v>1024</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O7" s="0" t="n">
+      <c r="N7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="0" t="n">
+      <c r="P7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="2" t="n">
         <v>82.03</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="2" t="n">
         <v>81.48</v>
       </c>
     </row>
@@ -993,61 +995,62 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <v>1024</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O11" s="0" t="n">
+      <c r="N11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="0" t="n">
+      <c r="P11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="2" t="n">
         <v>81.43</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="2" t="n">
         <v>80.82</v>
       </c>
     </row>
@@ -1229,61 +1232,62 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="0" t="n">
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>1024</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="2" t="n">
         <v>100</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="0" t="n">
+      <c r="P15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="2" t="n">
         <v>82.07</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="2" t="n">
         <v>81.35</v>
       </c>
     </row>
@@ -1465,61 +1469,62 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="0" t="n">
+      <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2" t="n">
         <v>1024</v>
       </c>
-      <c r="N19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O19" s="0" t="n">
+      <c r="N19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="0" t="n">
+      <c r="P19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="2" t="n">
         <v>82.7</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="2" t="n">
         <v>82.01</v>
       </c>
     </row>
@@ -2174,61 +2179,62 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="0" t="n">
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="2" t="n">
         <v>2048</v>
       </c>
       <c r="N31" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="0" t="n">
+      <c r="P31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="2" t="n">
         <v>82.97</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="T31" s="2" t="n">
         <v>82.37</v>
       </c>
     </row>
